--- a/public/excel/PPPK_kominfo.xlsx
+++ b/public/excel/PPPK_kominfo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/absensi/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFD06639-9153-A640-907C-048BCAF74AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D77786-17AB-8A4A-9A53-8AC3DCB1DC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2500" windowWidth="27240" windowHeight="16440" xr2:uid="{E8F25B5C-E91B-0F49-9E91-2E8A18BED022}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>199510262025211002</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Pranata Komputer Ahli Pertama</t>
-  </si>
-  <si>
-    <t>DINAS KOMUNIKASI, INFORMATIKA DAN STATISTIK - PEMERINTAH KOTA BANJARMASIN</t>
   </si>
   <si>
     <t>200006172025211003</t>
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A251052C-6E15-DC43-9A2F-44A611A0DEF9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,18 +515,18 @@
     <col min="5" max="5" width="71.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -542,16 +539,13 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -559,33 +553,27 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -593,16 +581,13 @@
       <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -610,16 +595,13 @@
       <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -627,16 +609,13 @@
       <c r="D7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -644,76 +623,61 @@
       <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>26</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
